--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5821906-5555-4FB0-929A-7E50403DF016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA3E926-5333-4A0B-AA07-33217CF1CC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>Unit</t>
   </si>
@@ -214,6 +214,63 @@
   </si>
   <si>
     <t>When this mode is selected code is executed to request that the buggy starts autonomous operation.</t>
+  </si>
+  <si>
+    <t>Used to select the one of the configuration options available for the buggy. When an option is selected, the combo box is resposnible for executing code that will cause the current configuration parameters for that option to be displayed in the 'current' configuration textbox. Additionally, selecting an option will enable other asscociated textboxes and buttons to allow the option to be configured and ultimately allow the buggy to be updated with the new parameters.</t>
+  </si>
+  <si>
+    <t>When an option is selected the current configuration parameters for that option are displayed and inputs for that that allow the option to be configured will be enabled.</t>
+  </si>
+  <si>
+    <t>Textbox used to input new configuration values for the selected option. This input should only accept numerical values so that correct configuration values are sent. The textbox will also only allow values of certain ranges depending on the configuration option.</t>
+  </si>
+  <si>
+    <t>non numerical input or out of range input will cause the update button to disable.</t>
+  </si>
+  <si>
+    <t>The status textbox is read only and displays the update status of the buggy. If the successfully configured, the status textbox will display "Success" if not then it will display "Failed".</t>
+  </si>
+  <si>
+    <t>On successful update textbox will display "Success" otherwise it will display "Failed".</t>
+  </si>
+  <si>
+    <t>Displays the current configuration values for the selected option. The textbox is read only. Additionally, when the buggy is updated with new parameters, the new parameters will be displayed.</t>
+  </si>
+  <si>
+    <t>When an option is selected, the current configuration values are displated and when no otpion is selected, the textbox is clear. Also, when the parameters are sucessfully updated, updated parameters should be displayed.</t>
+  </si>
+  <si>
+    <t>Executes code to update the buggy with the new parameters .</t>
+  </si>
+  <si>
+    <t>The code should execute causing appropriate changes to occur.</t>
+  </si>
+  <si>
+    <t>This textbox is readonly and displays the temperature data from the buggy. In manual interaction mode, the new data will display when the 'Request Data' button is pressed. In autonomous mode, the data will be displayed periodically.</t>
+  </si>
+  <si>
+    <t>This textbox is readonly and displays the humidity data from the buggy. In manual interaction mode, the new data will display when the 'Request Data' button is pressed. In autonomous mode, the data will be displayed periodically.</t>
+  </si>
+  <si>
+    <t>The temperature textbox should display temperature correctly in both interaction modes.</t>
+  </si>
+  <si>
+    <t>The humidity textbox should display humidity correctly in both interaction modes.</t>
+  </si>
+  <si>
+    <t>This textbox is readonly and displays the light intensity data from the buggy. In manual interaction mode, the new data will display when the 'Request Data' button is pressed. In autonomous mode, the data will be displayed periodically.</t>
+  </si>
+  <si>
+    <t>The light intesnity textbox should display light intesnity correctly in both interaction modes.</t>
+  </si>
+  <si>
+    <t>Executes code to request temperature, humidity and light intensity data from the buggy on click.</t>
+  </si>
+  <si>
+    <t>Request scuccessfully should be delivered to the request queue and sent to the buggy.</t>
+  </si>
+  <si>
+    <t>Request Handler</t>
   </si>
 </sst>
 </file>
@@ -574,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,45 +855,61 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -845,38 +918,54 @@
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -885,8 +974,12 @@
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -903,6 +996,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA3E926-5333-4A0B-AA07-33217CF1CC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FCB14-986A-42B8-ACAB-CA13FB8DCBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,12 +114,6 @@
     <t>Client Controller greenhouse data request data button</t>
   </si>
   <si>
-    <t>connect button should be disabled if the input is anything other than full stops or numbers.</t>
-  </si>
-  <si>
-    <t>The input box should disable the server connect button on any input that is not a full stop or a number to prevent the controller client from trying to connect to a bad address.</t>
-  </si>
-  <si>
     <t>the port input should disable the server connect button on any input that is nota number to prevent the controller client from trying to connect to a bad port.</t>
   </si>
   <si>
@@ -271,6 +265,19 @@
   </si>
   <si>
     <t>Request Handler</t>
+  </si>
+  <si>
+    <t>Connection attempt should not be started and appropriate message should be displayed in the status text box if the IP address is invalid.
+If the ip address is valid the Controller client should connect to the server.</t>
+  </si>
+  <si>
+    <t>Tests all the possible inputs. When 'Connect' button is pressed, the connection attempt should not go through on invalid ip address input. Ip Address is invalidated if:
+1. Any characters other than numbers and full stops are present
+2. IP address does not begin or end with a number
+3. IP address has more than 4 sets of numbers or 3 full stops between the numbers
+4. IP address has more than one consecutive dots
+5. A number set converted into an integer is not between 0 and 255
+6. More than three characters numbers per number set are present</t>
   </si>
 </sst>
 </file>
@@ -631,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +648,7 @@
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="83.5703125" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -673,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -681,11 +688,12 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -695,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -706,13 +714,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -723,10 +731,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -737,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -751,10 +759,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -765,10 +773,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -779,10 +787,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -793,10 +801,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -807,10 +815,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -821,10 +829,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -835,10 +843,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -849,10 +857,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -863,10 +871,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -877,10 +885,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -891,10 +899,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -905,10 +913,10 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -919,10 +927,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -933,10 +941,10 @@
         <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -947,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -961,10 +969,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -975,10 +983,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -986,18 +994,18 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2"/>
     </row>
@@ -1036,22 +1044,22 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FCB14-986A-42B8-ACAB-CA13FB8DCBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56C889F-B552-4316-B1BD-16AEEB286B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Documentation/Testing.xlsx
+++ b/Documentation/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56C889F-B552-4316-B1BD-16AEEB286B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7472E55-49AE-4BCF-ABF8-9507BA28AA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>Unit</t>
   </si>
@@ -114,31 +114,10 @@
     <t>Client Controller greenhouse data request data button</t>
   </si>
   <si>
-    <t>the port input should disable the server connect button on any input that is nota number to prevent the controller client from trying to connect to a bad port.</t>
-  </si>
-  <si>
-    <t>connect button should be disabled if the input is anything other than a number.</t>
-  </si>
-  <si>
     <t>Responsible for executing code that will attempt connection to the server on click. After clicking the connect button, pattern of ip address input is verified before the connection attempt to ensure it is correct.</t>
   </si>
   <si>
-    <t>Connects to the specified ip address and port by the ip address and port (the server) input boxes if the pattern is correct. If the pattern is not correct, the connection status box should display appropriate message.</t>
-  </si>
-  <si>
-    <t>Sucessful connection = Connected, Failed Attempt = Failed to connect, lost connection = Disconnected, Incorrect pattern = incorrect ip address pattern</t>
-  </si>
-  <si>
-    <t>The status box is there to indicate about the status of the connection to the server. An appropriate status message is displayed depending on the connection status to the server. The four status messages, Connected, Disconnected, Failed to Connect and incorrect ip address pattern. Each condition will be presented to the controller client to see how it responds.</t>
-  </si>
-  <si>
     <t>Client Controller server connection status box</t>
-  </si>
-  <si>
-    <t>Displays the connected client IDs of the clients (buggies and other controller clients) connected to the server.</t>
-  </si>
-  <si>
-    <t>Client IDs of other clients connected to the server should be displayed in the listbox.</t>
   </si>
   <si>
     <t>Executes code to connect to the buggy selected from the listbox.</t>
@@ -278,6 +257,54 @@
 4. IP address has more than one consecutive dots
 5. A number set converted into an integer is not between 0 and 255
 6. More than three characters numbers per number set are present</t>
+  </si>
+  <si>
+    <t>1 - Connection did attempt did not proceed.
+2 - Connection did attempt did not proceed.
+3 - Connection did attempt did not proceed.
+4 - Connection did attempt did not proceed.
+5 - Connection did attempt did not proceed.
+6 - Connection did attempt did not proceed.
+Correct IP format - Connection attempt did proceed.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>the port input should disable the server connect button on any input that is not a number between 0 and 65535 to prevent the controller client from trying to connect to a bad port.</t>
+  </si>
+  <si>
+    <t>connect button should be disabled if the input is anything other than a number between 0 and 65535.</t>
+  </si>
+  <si>
+    <t>Connect' button disables when invalid in presence of invalid input.</t>
+  </si>
+  <si>
+    <t>Sucessful connection = Connected
+Failed Attempt = Failed to connect 
+lost connection = Disconnected
+Incorrect pattern = Invalid IP address</t>
+  </si>
+  <si>
+    <t>The status box is there to indicate about the status of the connection to the server. An appropriate status message is displayed depending on the connection status to the server. The four status messages, Connected, Disconnected, Failed to Connect and Invalid IP address. Each condition will be presented to the controller client to see how it responds.</t>
+  </si>
+  <si>
+    <t>Connects to the specified ip address and port by the ip address and port (the server) input boxes if the pattern is correct. If the pattern is not correct, the connection status box should display appropriate message and the connection attempt should not be made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid IP - Invalid IP Address message displayed and connection attempt is not made.
+Correct Inputs - Triggers a attempt to make a connection with the server.
+</t>
+  </si>
+  <si>
+    <t>Displays the connected client IDs of the clients (buggies and other controller clients) connected to the server. If a client disconnects from the server, the program should remove the disconnected client from the list upon receiving a request from the the server to remove the disconnected client.</t>
+  </si>
+  <si>
+    <t>Client IDs of other clients connected to the server should be displayed in the listbox.
+Disconnected clients should be removed from the listbox.</t>
+  </si>
+  <si>
+    <t>Displays connected clients and deletes the disconnected clients from the list.</t>
   </si>
 </sst>
 </file>
@@ -342,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +382,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,12 +722,20 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6">
+        <v>44201</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -703,27 +745,45 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,13 +791,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="5">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -745,10 +814,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="5">
+        <v>44201</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -759,11 +837,12 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -773,11 +852,12 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -787,11 +867,12 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -801,11 +882,12 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -815,11 +897,12 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -829,11 +912,12 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -843,11 +927,12 @@
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -857,11 +942,12 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -871,11 +957,12 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -885,13 +972,14 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -899,13 +987,14 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -913,13 +1002,14 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -927,13 +1017,14 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -941,13 +1032,14 @@
         <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -955,13 +1047,14 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -969,13 +1062,14 @@
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -983,51 +1077,53 @@
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1044,22 +1140,22 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
